--- a/Figs_script/Scanner_tSNR_comp_vaso.xlsx
+++ b/Figs_script/Scanner_tSNR_comp_vaso.xlsx
@@ -138,7 +138,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -304,7 +304,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>14.07</v>
+        <v>14.05</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
